--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/018_巡逻任务表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/018_巡逻任务表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444881E5-8F37-4FB4-9D7F-94E04741E510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEA9703-6326-4C58-86A2-FEDBB205CEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24900" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27240" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PatrolPool|++" sheetId="2" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/018_巡逻任务表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/018_巡逻任务表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEA9703-6326-4C58-86A2-FEDBB205CEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1972F7-5711-4E21-BD4C-93BC2070D774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27240" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PatrolPool|++" sheetId="2" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -152,22 +152,25 @@
     <t>别名1</t>
   </si>
   <si>
-    <t>500;1;1</t>
+    <t>529;1;1</t>
   </si>
   <si>
     <t>别名2</t>
   </si>
   <si>
-    <t>520;3;1|521;2;1|522;1;1|523;3;1|524;2;1|525;1;1|526;3;1|527;2;1|528;1;1|529;3;1|530;2;1|531;1;1|521;1;1</t>
+    <t>524;3;2|523;3;2|522;3;3|527;3;3|530;3;2</t>
   </si>
   <si>
     <t>别名3</t>
   </si>
   <si>
-    <t>512;3;1|513;2;1|514;1;1|515;3;1|516;2;1|517;1;1|518;3;1|519;2;1|501;1;1|502;3;1|503;2;1|504;1;1</t>
-  </si>
-  <si>
-    <t>515;1;1|501;1;1|502;1;1|503;1;1|504;1;1|505;1;1|506;1;1|507;1;1|508;1;1|509;1;1|510;1;1|511;1;1</t>
+    <t>524;3;12|523;3;12|522;3;15|527;3;15|530;3;12|521;2;30|520;2;24|525;2;30|528;2;6|533;2;6|534;2;6</t>
+  </si>
+  <si>
+    <t>别名4</t>
+  </si>
+  <si>
+    <t>524;3;2|523;3;2|522;3;2|527;3;2|530;3;2|521;2;3|520;2;3|525;2;3|528;2;1|533;2;1|534;2;1|531;1;6|532;1;6|526;1;6</t>
   </si>
 </sst>
 </file>
@@ -205,6 +208,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -216,14 +227,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -284,10 +287,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -638,16 +641,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="102" customWidth="1"/>
+    <col min="4" max="4" width="71.875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
@@ -655,7 +658,7 @@
     <col min="9" max="9" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -713,7 +716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -742,7 +745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -769,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -786,72 +789,74 @@
         <v>1</v>
       </c>
       <c r="F5" s="9">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="G5" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H5" s="9">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I5" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>4</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="9">
-        <v>5</v>
-      </c>
-      <c r="F6" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="F6" s="9">
+        <v>529</v>
+      </c>
       <c r="G6" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F7" s="9">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="G7" s="10">
         <v>8</v>
       </c>
       <c r="H7" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="10"/>
       <c r="E8" s="12"/>
@@ -860,7 +865,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="10"/>
       <c r="D9" s="10"/>
@@ -870,7 +875,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="10"/>
       <c r="D10" s="10"/>
@@ -880,27 +885,29 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="D13" s="12"/>
@@ -909,8 +916,9 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="D14" s="12"/>
@@ -920,7 +928,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="D15" s="12"/>
@@ -930,7 +938,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="E16" s="12"/>
